--- a/masks/code/diplexer_FINAL_AT_more_edits.xlsx
+++ b/masks/code/diplexer_FINAL_AT_more_edits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Patches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shift_Calculator" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Patches" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Shift_Calculator" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -732,7 +732,7 @@
     <col customWidth="1" max="1" min="1" width="13"/>
     <col customWidth="1" max="2" min="2" width="11"/>
     <col customWidth="1" max="3" min="3" width="30"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
     <col customWidth="1" max="5" min="5" width="9"/>
     <col customWidth="1" max="6" min="6" width="8"/>
     <col customWidth="1" max="7" min="7" width="8"/>
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-9.016250000000001</v>
+        <v>-9.06</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>-11.402</v>
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>-8.666250000000002</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>-11.402</v>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-8.916250000000002</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>-11.402</v>
@@ -1500,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>-0.275</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>-0.275</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
@@ -1640,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-0.275</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
@@ -1710,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-0.14116</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-0.04116</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
